--- a/Assignment1/TestDesign-Assignment1-QuynhAnh-Updated.xlsx
+++ b/Assignment1/TestDesign-Assignment1-QuynhAnh-Updated.xlsx
@@ -4551,201 +4551,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="24" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4761,6 +4566,201 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="47" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5525,37 +5525,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="172"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="178"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="174" t="s">
+      <c r="B5" s="179"/>
+      <c r="C5" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="176"/>
-      <c r="C6" s="169" t="s">
+      <c r="B6" s="182"/>
+      <c r="C6" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -5567,14 +5567,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="147" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
     </row>
     <row r="9" spans="1:6" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="148" t="s">
@@ -5657,14 +5657,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -5787,36 +5787,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="180" t="s">
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="180"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="181" t="s">
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="153"/>
@@ -5836,65 +5836,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
+      <c r="A8" s="193"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="187" t="s">
+      <c r="A9" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="187"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="187"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
+      <c r="A10" s="193"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
     </row>
     <row r="11" spans="1:11" ht="14.25">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="188"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -5916,65 +5916,65 @@
       <c r="A14" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="185"/>
-      <c r="K14" s="186"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="192"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="186"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="192"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="134"/>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="186"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="192"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="134"/>
-      <c r="B17" s="184" t="s">
+      <c r="B17" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="186"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="192"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="4" t="s">
@@ -5985,40 +5985,40 @@
       <c r="A20" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="184" t="s">
+      <c r="B20" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="192"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="186"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="192"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="184" t="s">
+      <c r="B22" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="186"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="192"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="4" t="s">
@@ -6077,11 +6077,11 @@
       <c r="N27" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="177" t="s">
+      <c r="B29" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="178"/>
-      <c r="D29" s="179"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="185"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -6158,14 +6158,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="25.5">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -6351,12 +6351,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="26.25">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
       <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -6517,18 +6517,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="190" t="s">
+      <c r="A16" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="190"/>
+      <c r="B16" s="196"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="191" t="s">
+      <c r="A17" s="197" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="191"/>
+      <c r="B17" s="197"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -6557,8 +6557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6573,10 +6573,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="196"/>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
+      <c r="A1" s="208"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -6585,13 +6585,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="209" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="202"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="204"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -6600,9 +6600,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="202"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -6613,11 +6613,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="206" t="s">
         <v>421</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -6631,11 +6631,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="207" t="s">
         <v>420</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -6649,9 +6649,9 @@
       <c r="A6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
+      <c r="B6" s="207"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -6662,11 +6662,11 @@
       <c r="A7" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="206" t="s">
         <v>418</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -6678,11 +6678,11 @@
       <c r="A8" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="200">
+      <c r="B8" s="210">
         <v>44846</v>
       </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -6825,11 +6825,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="201" t="s">
+      <c r="F16" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="201"/>
-      <c r="H16" s="201"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="38.25">
@@ -6863,28 +6863,28 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="231" t="s">
+      <c r="B18" s="200" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="202"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
       <c r="H18" s="68"/>
       <c r="I18" s="67"/>
     </row>
-    <row r="19" spans="1:9" s="236" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B19" s="232" t="s">
+    <row r="19" spans="1:9" s="171" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B19" s="167" t="s">
         <v>423</v>
       </c>
-      <c r="C19" s="233"/>
-      <c r="D19" s="234"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="235"/>
-      <c r="H19" s="235"/>
-      <c r="I19" s="232"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="167"/>
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1" ht="25.5">
       <c r="A20" s="52">
@@ -7029,17 +7029,17 @@
       <c r="H28" s="52"/>
       <c r="I28" s="61"/>
     </row>
-    <row r="29" spans="1:9" s="236" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B29" s="232" t="s">
+    <row r="29" spans="1:9" s="171" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B29" s="167" t="s">
         <v>432</v>
       </c>
-      <c r="C29" s="233"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="232"/>
-      <c r="F29" s="235"/>
-      <c r="G29" s="235"/>
-      <c r="H29" s="235"/>
-      <c r="I29" s="232"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="167"/>
     </row>
     <row r="30" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A30" s="58">
@@ -7265,17 +7265,17 @@
       <c r="H43" s="52"/>
       <c r="I43" s="61"/>
     </row>
-    <row r="44" spans="1:9" s="236" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B44" s="232" t="s">
+    <row r="44" spans="1:9" s="171" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B44" s="167" t="s">
         <v>446</v>
       </c>
-      <c r="C44" s="233"/>
-      <c r="D44" s="234"/>
-      <c r="E44" s="232"/>
-      <c r="F44" s="235"/>
-      <c r="G44" s="235"/>
-      <c r="H44" s="235"/>
-      <c r="I44" s="232"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="167"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="167"/>
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A45" s="58">
@@ -7341,17 +7341,17 @@
       <c r="H48" s="52"/>
       <c r="I48" s="61"/>
     </row>
-    <row r="49" spans="1:9" s="236" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B49" s="232" t="s">
+    <row r="49" spans="1:9" s="171" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B49" s="167" t="s">
         <v>453</v>
       </c>
-      <c r="C49" s="233"/>
-      <c r="D49" s="234"/>
-      <c r="E49" s="232"/>
-      <c r="F49" s="235"/>
-      <c r="G49" s="235"/>
-      <c r="H49" s="235"/>
-      <c r="I49" s="232"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="169"/>
+      <c r="E49" s="167"/>
+      <c r="F49" s="170"/>
+      <c r="G49" s="170"/>
+      <c r="H49" s="170"/>
+      <c r="I49" s="167"/>
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A50" s="58">
@@ -7390,7 +7390,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="B52" s="237" t="s">
+      <c r="B52" s="172" t="s">
         <v>455</v>
       </c>
       <c r="C52" s="52"/>
@@ -7403,28 +7403,28 @@
     </row>
     <row r="53" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A53" s="77"/>
-      <c r="B53" s="193" t="s">
+      <c r="B53" s="203" t="s">
         <v>422</v>
       </c>
-      <c r="C53" s="194"/>
-      <c r="D53" s="195"/>
+      <c r="C53" s="201"/>
+      <c r="D53" s="202"/>
       <c r="E53" s="69"/>
       <c r="F53" s="66"/>
       <c r="G53" s="66"/>
       <c r="H53" s="66"/>
       <c r="I53" s="69"/>
     </row>
-    <row r="54" spans="1:9" s="236" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B54" s="232" t="s">
+    <row r="54" spans="1:9" s="171" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B54" s="167" t="s">
         <v>464</v>
       </c>
-      <c r="C54" s="233"/>
-      <c r="D54" s="234"/>
-      <c r="E54" s="232"/>
-      <c r="F54" s="235"/>
-      <c r="G54" s="235"/>
-      <c r="H54" s="235"/>
-      <c r="I54" s="232"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="167"/>
     </row>
     <row r="55" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A55" s="62">
@@ -7489,17 +7489,17 @@
       <c r="H58" s="52"/>
       <c r="I58" s="62"/>
     </row>
-    <row r="59" spans="1:9" s="236" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B59" s="232" t="s">
+    <row r="59" spans="1:9" s="171" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B59" s="167" t="s">
         <v>457</v>
       </c>
-      <c r="C59" s="233"/>
-      <c r="D59" s="234"/>
-      <c r="E59" s="232"/>
-      <c r="F59" s="235"/>
-      <c r="G59" s="235"/>
-      <c r="H59" s="235"/>
-      <c r="I59" s="232"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="167"/>
+      <c r="F59" s="170"/>
+      <c r="G59" s="170"/>
+      <c r="H59" s="170"/>
+      <c r="I59" s="167"/>
     </row>
     <row r="60" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A60" s="62">
@@ -7597,17 +7597,17 @@
       <c r="H65" s="52"/>
       <c r="I65" s="62"/>
     </row>
-    <row r="66" spans="1:9" s="236" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B66" s="232" t="s">
+    <row r="66" spans="1:9" s="171" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B66" s="167" t="s">
         <v>469</v>
       </c>
-      <c r="C66" s="233"/>
-      <c r="D66" s="234"/>
-      <c r="E66" s="232"/>
-      <c r="F66" s="235"/>
-      <c r="G66" s="235"/>
-      <c r="H66" s="235"/>
-      <c r="I66" s="232"/>
+      <c r="C66" s="168"/>
+      <c r="D66" s="169"/>
+      <c r="E66" s="167"/>
+      <c r="F66" s="170"/>
+      <c r="G66" s="170"/>
+      <c r="H66" s="170"/>
+      <c r="I66" s="167"/>
     </row>
     <row r="67" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A67" s="62">
@@ -7642,7 +7642,10 @@
       <c r="I68" s="62"/>
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="25.5">
-      <c r="A69" s="62"/>
+      <c r="A69" s="62">
+        <f ca="1">IF(OFFSET(A69,-1,0) ="",OFFSET(A69,-2,0)+1,OFFSET(A69,-1,0)+1 )</f>
+        <v>43</v>
+      </c>
       <c r="B69" s="52" t="s">
         <v>473</v>
       </c>
@@ -7657,7 +7660,7 @@
     <row r="70" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A70" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B70" s="52" t="s">
         <v>472</v>
@@ -7673,7 +7676,7 @@
     <row r="71" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A71" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B71" s="52" t="s">
         <v>474</v>
@@ -7686,22 +7689,22 @@
       <c r="H71" s="52"/>
       <c r="I71" s="62"/>
     </row>
-    <row r="72" spans="1:9" s="236" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B72" s="232" t="s">
+    <row r="72" spans="1:9" s="171" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B72" s="167" t="s">
         <v>475</v>
       </c>
-      <c r="C72" s="233"/>
-      <c r="D72" s="234"/>
-      <c r="E72" s="232"/>
-      <c r="F72" s="235"/>
-      <c r="G72" s="235"/>
-      <c r="H72" s="235"/>
-      <c r="I72" s="232"/>
+      <c r="C72" s="168"/>
+      <c r="D72" s="169"/>
+      <c r="E72" s="167"/>
+      <c r="F72" s="170"/>
+      <c r="G72" s="170"/>
+      <c r="H72" s="170"/>
+      <c r="I72" s="167"/>
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A73" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B73" s="52" t="s">
         <v>476</v>
@@ -7717,7 +7720,7 @@
     <row r="74" spans="1:9" s="48" customFormat="1" ht="27" customHeight="1">
       <c r="A74" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B74" s="52" t="s">
         <v>477</v>
@@ -7733,7 +7736,7 @@
     <row r="75" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A75" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75" s="52"/>
       <c r="C75" s="52"/>
@@ -7747,7 +7750,7 @@
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A76" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B76" s="52"/>
       <c r="C76" s="52"/>
@@ -7761,7 +7764,7 @@
     <row r="77" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A77" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B77" s="52"/>
       <c r="C77" s="52"/>
@@ -7775,7 +7778,7 @@
     <row r="78" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A78" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B78" s="52"/>
       <c r="C78" s="52"/>
@@ -7789,7 +7792,7 @@
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A79" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B79" s="52"/>
       <c r="C79" s="52"/>
@@ -7803,7 +7806,7 @@
     <row r="80" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A80" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B80" s="52"/>
       <c r="C80" s="52"/>
@@ -7817,7 +7820,7 @@
     <row r="81" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A81" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B81" s="52"/>
       <c r="C81" s="52"/>
@@ -7831,7 +7834,7 @@
     <row r="82" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A82" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B82" s="52"/>
       <c r="C82" s="52"/>
@@ -7845,7 +7848,7 @@
     <row r="83" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A83" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B83" s="52"/>
       <c r="C83" s="52"/>
@@ -7859,7 +7862,7 @@
     <row r="84" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A84" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B84" s="52"/>
       <c r="C84" s="52"/>
@@ -7873,7 +7876,7 @@
     <row r="85" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A85" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B85" s="52"/>
       <c r="C85" s="52"/>
@@ -7887,7 +7890,7 @@
     <row r="86" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A86" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B86" s="52"/>
       <c r="C86" s="52"/>
@@ -7901,7 +7904,7 @@
     <row r="87" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A87" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B87" s="52"/>
       <c r="C87" s="52"/>
@@ -7915,7 +7918,7 @@
     <row r="88" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A88" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B88" s="52"/>
       <c r="C88" s="52"/>
@@ -7929,7 +7932,7 @@
     <row r="89" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A89" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B89" s="52"/>
       <c r="C89" s="52"/>
@@ -7943,7 +7946,7 @@
     <row r="90" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A90" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B90" s="52"/>
       <c r="C90" s="52"/>
@@ -7957,7 +7960,7 @@
     <row r="91" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A91" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B91" s="52"/>
       <c r="C91" s="52"/>
@@ -7971,7 +7974,7 @@
     <row r="92" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A92" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B92" s="52"/>
       <c r="C92" s="52"/>
@@ -7985,7 +7988,7 @@
     <row r="93" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A93" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B93" s="52"/>
       <c r="C93" s="52"/>
@@ -7999,7 +8002,7 @@
     <row r="94" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A94" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B94" s="52"/>
       <c r="C94" s="52"/>
@@ -8013,7 +8016,7 @@
     <row r="95" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A95" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B95" s="52"/>
       <c r="C95" s="52"/>
@@ -8027,7 +8030,7 @@
     <row r="96" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A96" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B96" s="52"/>
       <c r="C96" s="52"/>
@@ -8041,7 +8044,7 @@
     <row r="97" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A97" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B97" s="52"/>
       <c r="C97" s="52"/>
@@ -8055,7 +8058,7 @@
     <row r="98" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A98" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B98" s="52"/>
       <c r="C98" s="52"/>
@@ -8069,7 +8072,7 @@
     <row r="99" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A99" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B99" s="52"/>
       <c r="C99" s="52"/>
@@ -8083,7 +8086,7 @@
     <row r="100" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A100" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B100" s="52"/>
       <c r="C100" s="52"/>
@@ -8097,7 +8100,7 @@
     <row r="101" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A101" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B101" s="52"/>
       <c r="C101" s="52"/>
@@ -8110,6 +8113,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B53:D53"/>
@@ -8117,11 +8125,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
@@ -8159,10 +8162,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="196"/>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
+      <c r="A1" s="208"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -8171,13 +8174,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="209" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="202"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="204"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -8186,9 +8189,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="202"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -8199,11 +8202,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="206" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -8217,11 +8220,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="207" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -8235,11 +8238,11 @@
       <c r="A6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="207" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -8250,11 +8253,11 @@
       <c r="A7" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="206" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -8266,11 +8269,11 @@
       <c r="A8" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="200">
+      <c r="B8" s="210">
         <v>40850</v>
       </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -8413,11 +8416,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="205" t="s">
+      <c r="F16" s="212" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="206"/>
-      <c r="H16" s="207"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="214"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="38.25">
@@ -8451,11 +8454,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="193" t="s">
+      <c r="B18" s="203" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="202"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -8734,11 +8737,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A29" s="77"/>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="203" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
       <c r="E29" s="69"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
@@ -8887,11 +8890,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A35" s="77"/>
-      <c r="B35" s="193" t="s">
+      <c r="B35" s="203" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="194"/>
-      <c r="D35" s="195"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="202"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -8928,11 +8931,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A37" s="77"/>
-      <c r="B37" s="193" t="s">
+      <c r="B37" s="203" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="194"/>
-      <c r="D37" s="195"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="202"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -9193,11 +9196,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A47" s="77"/>
-      <c r="B47" s="193" t="s">
+      <c r="B47" s="203" t="s">
         <v>213</v>
       </c>
-      <c r="C47" s="194"/>
-      <c r="D47" s="195"/>
+      <c r="C47" s="201"/>
+      <c r="D47" s="202"/>
       <c r="E47" s="69"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -9318,11 +9321,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A52" s="77"/>
-      <c r="B52" s="193" t="s">
+      <c r="B52" s="203" t="s">
         <v>228</v>
       </c>
-      <c r="C52" s="194"/>
-      <c r="D52" s="195"/>
+      <c r="C52" s="201"/>
+      <c r="D52" s="202"/>
       <c r="E52" s="69"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -9415,11 +9418,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A56" s="77"/>
-      <c r="B56" s="193" t="s">
+      <c r="B56" s="203" t="s">
         <v>240</v>
       </c>
-      <c r="C56" s="194"/>
-      <c r="D56" s="195"/>
+      <c r="C56" s="201"/>
+      <c r="D56" s="202"/>
       <c r="E56" s="69"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -9736,11 +9739,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A68" s="77"/>
-      <c r="B68" s="193" t="s">
+      <c r="B68" s="203" t="s">
         <v>282</v>
       </c>
-      <c r="C68" s="194"/>
-      <c r="D68" s="195"/>
+      <c r="C68" s="201"/>
+      <c r="D68" s="202"/>
       <c r="E68" s="69"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -9833,11 +9836,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A72" s="77"/>
-      <c r="B72" s="193" t="s">
+      <c r="B72" s="203" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="194"/>
-      <c r="D72" s="195"/>
+      <c r="C72" s="201"/>
+      <c r="D72" s="202"/>
       <c r="E72" s="69"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
@@ -9930,11 +9933,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="193" t="s">
+      <c r="B76" s="203" t="s">
         <v>303</v>
       </c>
-      <c r="C76" s="194"/>
-      <c r="D76" s="195"/>
+      <c r="C76" s="201"/>
+      <c r="D76" s="202"/>
       <c r="E76" s="69"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -9999,11 +10002,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="193" t="s">
+      <c r="B79" s="203" t="s">
         <v>311</v>
       </c>
-      <c r="C79" s="194"/>
-      <c r="D79" s="195"/>
+      <c r="C79" s="201"/>
+      <c r="D79" s="202"/>
       <c r="E79" s="69"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -10152,17 +10155,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -10173,6 +10165,17 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F85:H142">
@@ -10210,10 +10213,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="196"/>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
+      <c r="A1" s="208"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -10222,13 +10225,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="209" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="202"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="204"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -10237,9 +10240,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="202"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -10250,11 +10253,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="206" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -10268,11 +10271,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="207" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -10286,11 +10289,11 @@
       <c r="A6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="207" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -10301,11 +10304,11 @@
       <c r="A7" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="206" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -10317,11 +10320,11 @@
       <c r="A8" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="200">
+      <c r="B8" s="210">
         <v>40850</v>
       </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -10464,11 +10467,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="205" t="s">
+      <c r="F16" s="212" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="206"/>
-      <c r="H16" s="207"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="214"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="38.25">
@@ -10502,11 +10505,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="193" t="s">
+      <c r="B18" s="203" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="202"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -10787,11 +10790,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A29" s="77"/>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="203" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
       <c r="E29" s="69"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
@@ -10940,11 +10943,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A35" s="77"/>
-      <c r="B35" s="193" t="s">
+      <c r="B35" s="203" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="194"/>
-      <c r="D35" s="195"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="202"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -10981,11 +10984,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A37" s="77"/>
-      <c r="B37" s="193" t="s">
+      <c r="B37" s="203" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="194"/>
-      <c r="D37" s="195"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="202"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -11246,11 +11249,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A47" s="77"/>
-      <c r="B47" s="193" t="s">
+      <c r="B47" s="203" t="s">
         <v>213</v>
       </c>
-      <c r="C47" s="194"/>
-      <c r="D47" s="195"/>
+      <c r="C47" s="201"/>
+      <c r="D47" s="202"/>
       <c r="E47" s="69"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -11371,11 +11374,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A52" s="77"/>
-      <c r="B52" s="193" t="s">
+      <c r="B52" s="203" t="s">
         <v>228</v>
       </c>
-      <c r="C52" s="194"/>
-      <c r="D52" s="195"/>
+      <c r="C52" s="201"/>
+      <c r="D52" s="202"/>
       <c r="E52" s="69"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -11468,11 +11471,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A56" s="77"/>
-      <c r="B56" s="193" t="s">
+      <c r="B56" s="203" t="s">
         <v>240</v>
       </c>
-      <c r="C56" s="194"/>
-      <c r="D56" s="195"/>
+      <c r="C56" s="201"/>
+      <c r="D56" s="202"/>
       <c r="E56" s="69"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -11789,11 +11792,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A68" s="77"/>
-      <c r="B68" s="193" t="s">
+      <c r="B68" s="203" t="s">
         <v>282</v>
       </c>
-      <c r="C68" s="194"/>
-      <c r="D68" s="195"/>
+      <c r="C68" s="201"/>
+      <c r="D68" s="202"/>
       <c r="E68" s="69"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -11886,11 +11889,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A72" s="77"/>
-      <c r="B72" s="193" t="s">
+      <c r="B72" s="203" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="194"/>
-      <c r="D72" s="195"/>
+      <c r="C72" s="201"/>
+      <c r="D72" s="202"/>
       <c r="E72" s="69"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
@@ -11983,11 +11986,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="193" t="s">
+      <c r="B76" s="203" t="s">
         <v>303</v>
       </c>
-      <c r="C76" s="194"/>
-      <c r="D76" s="195"/>
+      <c r="C76" s="201"/>
+      <c r="D76" s="202"/>
       <c r="E76" s="69"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -12052,11 +12055,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="193" t="s">
+      <c r="B79" s="203" t="s">
         <v>311</v>
       </c>
-      <c r="C79" s="194"/>
-      <c r="D79" s="195"/>
+      <c r="C79" s="201"/>
+      <c r="D79" s="202"/>
       <c r="E79" s="69"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -12205,6 +12208,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -12215,17 +12229,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="F19:H84">
@@ -12282,13 +12285,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="26.25">
       <c r="A2" s="83"/>
-      <c r="C2" s="210" t="s">
+      <c r="C2" s="233" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
       <c r="H2" s="85" t="s">
         <v>334</v>
       </c>
@@ -12299,15 +12302,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="23.25">
       <c r="A3" s="83"/>
-      <c r="C3" s="211" t="s">
+      <c r="C3" s="234" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="211"/>
+      <c r="D3" s="234"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="212" t="s">
+      <c r="F3" s="235" t="s">
         <v>336</v>
       </c>
-      <c r="G3" s="212"/>
+      <c r="G3" s="235"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -12332,10 +12335,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="213" t="s">
+      <c r="B6" s="217" t="s">
         <v>337</v>
       </c>
-      <c r="C6" s="213"/>
+      <c r="C6" s="217"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -12504,11 +12507,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="213" t="s">
+      <c r="B14" s="217" t="s">
         <v>367</v>
       </c>
-      <c r="C14" s="213"/>
-      <c r="D14" s="213"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -12684,11 +12687,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="213" t="s">
+      <c r="B23" s="217" t="s">
         <v>377</v>
       </c>
-      <c r="C23" s="213"/>
-      <c r="D23" s="213"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -12734,10 +12737,10 @@
       <c r="F26" s="160" t="s">
         <v>384</v>
       </c>
-      <c r="G26" s="214" t="s">
+      <c r="G26" s="236" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="215"/>
+      <c r="H26" s="237"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -12762,8 +12765,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="208"/>
-      <c r="H27" s="209"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="229"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -12788,8 +12791,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="208"/>
-      <c r="H28" s="209"/>
+      <c r="G28" s="228"/>
+      <c r="H28" s="229"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -12814,8 +12817,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="208"/>
-      <c r="H29" s="209"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="229"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -12840,8 +12843,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="208"/>
-      <c r="H30" s="209"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="229"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -12862,8 +12865,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="208"/>
-      <c r="H31" s="209"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="229"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -12901,10 +12904,10 @@
       <c r="E34" s="160" t="s">
         <v>343</v>
       </c>
-      <c r="F34" s="216" t="s">
+      <c r="F34" s="222" t="s">
         <v>346</v>
       </c>
-      <c r="G34" s="217"/>
+      <c r="G34" s="224"/>
     </row>
     <row r="35" spans="1:12" s="125" customFormat="1">
       <c r="A35" s="121"/>
@@ -12920,8 +12923,8 @@
       <c r="E35" s="126" t="s">
         <v>351</v>
       </c>
-      <c r="F35" s="219"/>
-      <c r="G35" s="220"/>
+      <c r="F35" s="231"/>
+      <c r="G35" s="232"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -12944,8 +12947,8 @@
       <c r="E36" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="F36" s="208"/>
-      <c r="G36" s="209"/>
+      <c r="F36" s="228"/>
+      <c r="G36" s="229"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -12963,8 +12966,8 @@
       <c r="E37" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="F37" s="208"/>
-      <c r="G37" s="209"/>
+      <c r="F37" s="228"/>
+      <c r="G37" s="229"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -12977,10 +12980,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="213" t="s">
+      <c r="B39" s="217" t="s">
         <v>398</v>
       </c>
-      <c r="C39" s="213"/>
+      <c r="C39" s="217"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -13004,15 +13007,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="218" t="s">
+      <c r="C41" s="230" t="s">
         <v>400</v>
       </c>
-      <c r="D41" s="218"/>
-      <c r="E41" s="218" t="s">
+      <c r="D41" s="230"/>
+      <c r="E41" s="230" t="s">
         <v>401</v>
       </c>
-      <c r="F41" s="218"/>
-      <c r="G41" s="218"/>
+      <c r="F41" s="230"/>
+      <c r="G41" s="230"/>
       <c r="H41" s="99" t="s">
         <v>402</v>
       </c>
@@ -13024,15 +13027,15 @@
       <c r="B42" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="C42" s="221" t="s">
+      <c r="C42" s="227" t="s">
         <v>404</v>
       </c>
-      <c r="D42" s="221"/>
-      <c r="E42" s="221" t="s">
+      <c r="D42" s="227"/>
+      <c r="E42" s="227" t="s">
         <v>405</v>
       </c>
-      <c r="F42" s="221"/>
-      <c r="G42" s="221"/>
+      <c r="F42" s="227"/>
+      <c r="G42" s="227"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -13042,15 +13045,15 @@
       <c r="B43" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="C43" s="221" t="s">
+      <c r="C43" s="227" t="s">
         <v>404</v>
       </c>
-      <c r="D43" s="221"/>
-      <c r="E43" s="221" t="s">
+      <c r="D43" s="227"/>
+      <c r="E43" s="227" t="s">
         <v>405</v>
       </c>
-      <c r="F43" s="221"/>
-      <c r="G43" s="221"/>
+      <c r="F43" s="227"/>
+      <c r="G43" s="227"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -13060,15 +13063,15 @@
       <c r="B44" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="C44" s="221" t="s">
+      <c r="C44" s="227" t="s">
         <v>404</v>
       </c>
-      <c r="D44" s="221"/>
-      <c r="E44" s="221" t="s">
+      <c r="D44" s="227"/>
+      <c r="E44" s="227" t="s">
         <v>405</v>
       </c>
-      <c r="F44" s="221"/>
-      <c r="G44" s="221"/>
+      <c r="F44" s="227"/>
+      <c r="G44" s="227"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -13080,10 +13083,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="213" t="s">
+      <c r="B46" s="217" t="s">
         <v>406</v>
       </c>
-      <c r="C46" s="213"/>
+      <c r="C46" s="217"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -13101,25 +13104,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="224" t="s">
+      <c r="A48" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="226" t="s">
+      <c r="B48" s="220" t="s">
         <v>408</v>
       </c>
-      <c r="C48" s="216" t="s">
+      <c r="C48" s="222" t="s">
         <v>409</v>
       </c>
-      <c r="D48" s="228"/>
-      <c r="E48" s="228"/>
-      <c r="F48" s="217"/>
-      <c r="G48" s="229" t="s">
+      <c r="D48" s="223"/>
+      <c r="E48" s="223"/>
+      <c r="F48" s="224"/>
+      <c r="G48" s="225" t="s">
         <v>376</v>
       </c>
-      <c r="H48" s="229" t="s">
+      <c r="H48" s="225" t="s">
         <v>408</v>
       </c>
-      <c r="I48" s="222" t="s">
+      <c r="I48" s="215" t="s">
         <v>410</v>
       </c>
       <c r="J48" s="112"/>
@@ -13127,8 +13130,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="225"/>
-      <c r="B49" s="227"/>
+      <c r="A49" s="219"/>
+      <c r="B49" s="221"/>
       <c r="C49" s="114" t="s">
         <v>385</v>
       </c>
@@ -13141,13 +13144,13 @@
       <c r="F49" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G49" s="230"/>
-      <c r="H49" s="230"/>
-      <c r="I49" s="223"/>
+      <c r="G49" s="226"/>
+      <c r="H49" s="226"/>
+      <c r="I49" s="216"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="225"/>
-      <c r="B50" s="227"/>
+      <c r="A50" s="219"/>
+      <c r="B50" s="221"/>
       <c r="C50" s="128" t="s">
         <v>411</v>
       </c>
@@ -13259,26 +13262,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -13291,6 +13274,26 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -13328,6 +13331,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -13492,22 +13510,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13524,21 +13544,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>